--- a/Development/Results/model.xlsx
+++ b/Development/Results/model.xlsx
@@ -98,61 +98,61 @@
     <t xml:space="preserve">25.2</t>
   </si>
   <si>
-    <t xml:space="preserve">BSKgezien=Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.289; 1.791]</t>
+    <t xml:space="preserve">CorrCa24u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.112; 17.271]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.121; 15.428]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSKgezien - No:Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.906; 3.042]</t>
   </si>
   <si>
     <t xml:space="preserve">7.2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.306; 1.755]</t>
+    <t xml:space="preserve">3.778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.335; 7.648]</t>
   </si>
   <si>
     <t xml:space="preserve">8.9</t>
   </si>
   <si>
-    <t xml:space="preserve">CorrCa24u</t>
+    <t xml:space="preserve">Age_Years</t>
   </si>
   <si>
     <t xml:space="preserve">1.157</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.091; 14.113]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.028; 3.539]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.329; 0.344]</t>
+    <t xml:space="preserve">[0.456; 2.827]</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Sex=Male</t>
+    <t xml:space="preserve">Sex - Male:Female</t>
   </si>
   <si>
     <t xml:space="preserve">0.999</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">surgery_type=total</t>
+    <t xml:space="preserve">surgery_type - completion:total</t>
   </si>
   <si>
     <t xml:space="preserve">1.484</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
-    <t xml:space="preserve">CHKD=Yes</t>
+    <t xml:space="preserve">CHKD - Yes:No</t>
   </si>
   <si>
     <t xml:space="preserve">1.379</t>

--- a/Development/Results/model.xlsx
+++ b/Development/Results/model.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">1.394</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.003; 642.516]</t>
+    <t xml:space="preserve">[1.012; 1.921]</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">1.068</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.003; 427.952]</t>
+    <t xml:space="preserve">[0.781; 1.461]</t>
   </si>
   <si>
     <t xml:space="preserve">0.000</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.000; 0.004]</t>
+    <t xml:space="preserve">[0.000; 0.000]</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">1.085</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.034; 1.114]</t>
+    <t xml:space="preserve">[1.045; 1.126]</t>
   </si>
   <si>
     <t xml:space="preserve">18.2</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.035; 1.113]</t>
+    <t xml:space="preserve">[1.046; 1.125]</t>
   </si>
   <si>
     <t xml:space="preserve">19.3</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">1.089</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.042; 1.114]</t>
+    <t xml:space="preserve">[1.054; 1.126]</t>
   </si>
   <si>
     <t xml:space="preserve">25.2</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">1.458</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.112; 17.271]</t>
+    <t xml:space="preserve">[1.133; 1.875]</t>
   </si>
   <si>
     <t xml:space="preserve">8.6</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">1.426</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.121; 15.428]</t>
+    <t xml:space="preserve">[1.119; 1.818]</t>
   </si>
   <si>
     <t xml:space="preserve">8.2</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">3.479</t>
   </si>
   <si>
-    <t xml:space="preserve">[2.906; 3.042]</t>
+    <t xml:space="preserve">[1.398; 8.660]</t>
   </si>
   <si>
     <t xml:space="preserve">7.2</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.778</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.335; 7.648]</t>
+    <t xml:space="preserve">[1.579; 9.043]</t>
   </si>
   <si>
     <t xml:space="preserve">8.9</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">1.157</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.456; 2.827]</t>
+    <t xml:space="preserve">[0.624; 2.143]</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">1.484</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.420; 4.745]</t>
+    <t xml:space="preserve">[0.442; 4.987]</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">1.379</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.626; 2.804]</t>
+    <t xml:space="preserve">[0.652; 2.920]</t>
   </si>
   <si>
     <t xml:space="preserve">0.7</t>

--- a/Development/Results/model.xlsx
+++ b/Development/Results/model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -50,103 +50,97 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">1.394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.012; 1.921]</t>
+    <t xml:space="preserve">2.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.80; 3.42]</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">1.068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.781; 1.461]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.000; 0.000]</t>
+    <t xml:space="preserve">1.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.35; 2.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00; 0.00]</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH</t>
   </si>
   <si>
-    <t xml:space="preserve">1.085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.045; 1.126]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.046; 1.125]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.054; 1.126]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2</t>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04; 1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.05; 1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3</t>
   </si>
   <si>
     <t xml:space="preserve">CorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">1.458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.133; 1.875]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.119; 1.818]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2</t>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.13; 1.91]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.11; 1.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8</t>
   </si>
   <si>
     <t xml:space="preserve">BSKgezien - No:Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">3.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.398; 8.660]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.579; 9.043]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9</t>
+    <t xml:space="preserve">3.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.46; 9.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.62; 9.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3</t>
   </si>
   <si>
     <t xml:space="preserve">Age_Years</t>
   </si>
   <si>
-    <t xml:space="preserve">1.157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.624; 2.143]</t>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.62; 2.10]</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
@@ -155,10 +149,10 @@
     <t xml:space="preserve">Sex - Male:Female</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.480; 2.081]</t>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.45; 2.01]</t>
   </si>
   <si>
     <t xml:space="preserve">0.0</t>
@@ -167,10 +161,7 @@
     <t xml:space="preserve">surgery_type - completion:total</t>
   </si>
   <si>
-    <t xml:space="preserve">1.484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.442; 4.987]</t>
+    <t xml:space="preserve">[0.44; 4.85]</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
@@ -179,34 +170,31 @@
     <t xml:space="preserve">CHKD - Yes:No</t>
   </si>
   <si>
-    <t xml:space="preserve">1.379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.652; 2.920]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
+    <t xml:space="preserve">1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.62; 2.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">C-index</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.853; 0.924]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.850; 0.925]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.813; 0.900]</t>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.85; 0.92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84; 0.92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.81; 0.89]</t>
   </si>
 </sst>
 </file>
@@ -643,39 +631,39 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -692,28 +680,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -730,16 +718,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -768,16 +756,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -806,16 +794,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -844,16 +832,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -882,37 +870,37 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="K10" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>

--- a/Development/Results/model.xlsx
+++ b/Development/Results/model.xlsx
@@ -50,19 +50,19 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.80; 3.42]</t>
+    <t xml:space="preserve">2.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.82; 3.48]</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">1.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.35; 2.51]</t>
+    <t xml:space="preserve">1.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.36; 2.54]</t>
   </si>
   <si>
     <t xml:space="preserve">0.00</t>
@@ -77,18 +77,18 @@
     <t xml:space="preserve">1.08</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.04; 1.12]</t>
+    <t xml:space="preserve">[1.05; 1.12]</t>
   </si>
   <si>
     <t xml:space="preserve">20.6</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.05; 1.12]</t>
-  </si>
-  <si>
     <t xml:space="preserve">22.5</t>
   </si>
   <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
     <t xml:space="preserve">28.3</t>
   </si>
   <si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">1.47</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.13; 1.91]</t>
+    <t xml:space="preserve">[1.13; 1.92]</t>
   </si>
   <si>
     <t xml:space="preserve">8.1</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1.44</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.11; 1.86]</t>
+    <t xml:space="preserve">[1.11; 1.87]</t>
   </si>
   <si>
     <t xml:space="preserve">7.8</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">BSKgezien - No:Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.46; 9.09]</t>
+    <t xml:space="preserve">3.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.46; 9.23]</t>
   </si>
   <si>
     <t xml:space="preserve">7.7</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.62; 9.37]</t>
+    <t xml:space="preserve">3.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.63; 9.53]</t>
   </si>
   <si>
     <t xml:space="preserve">9.3</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">1.14</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.62; 2.10]</t>
+    <t xml:space="preserve">[0.61; 2.11]</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.95</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.45; 2.01]</t>
+    <t xml:space="preserve">[0.45; 2.02]</t>
   </si>
   <si>
     <t xml:space="preserve">0.0</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">surgery_type - completion:total</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.44; 4.85]</t>
+    <t xml:space="preserve">[0.44; 4.91]</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">1.33</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.62; 2.85]</t>
+    <t xml:space="preserve">[0.61; 2.87]</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">0.85</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.81; 0.89]</t>
+    <t xml:space="preserve">[0.81; 0.90]</t>
   </si>
 </sst>
 </file>
@@ -622,19 +622,19 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>

--- a/Development/Results/model.xlsx
+++ b/Development/Results/model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chi.full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rep("", nrow(combined.table))</t>
   </si>
   <si>
     <t xml:space="preserve">coef.final</t>
@@ -552,30 +549,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -584,77 +575,65 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -663,36 +642,30 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -701,209 +674,173 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
       <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
